--- a/data/trans_orig/IPAQ_MET-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF152F2-E15E-4CC1-8B76-69829585B990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1643830-F1C3-4AE0-A4E2-3FA08521F36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20EE0B61-E41F-4AE7-B47C-2FF91DA5B0B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A27AB156-362B-4555-B4DF-B82AB960C72C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -311,7 +311,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -323,1287 +323,1293 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>20,77%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
   </si>
   <si>
     <t>54,47%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>46,26%</t>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>45,18%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
     <t>21,14%</t>
   </si>
   <si>
@@ -1616,9 +1622,6 @@
     <t>28,27%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
     <t>34,15%</t>
   </si>
   <si>
@@ -1740,9 +1743,6 @@
   </si>
   <si>
     <t>27,62%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
   </si>
   <si>
     <t>44,37%</t>
@@ -2199,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F454CE16-C74F-44D6-9B99-73E35B860CF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADD9E76-91F5-4FF1-984F-9CB7F79EBAB3}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4376,7 +4376,7 @@
         <v>3214</v>
       </c>
       <c r="D44" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>11</v>
@@ -4580,7 +4580,7 @@
         <v>3214</v>
       </c>
       <c r="D48" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>13</v>
@@ -4648,7 +4648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9355CF99-0CE5-4FD1-A701-6CE9CA0B6D01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D13E7-52FC-4D1C-B8B6-269AF090CB3A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7067,7 +7067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5F39BE-425C-43F4-99FB-10890993E50E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846F96A-AA8B-47AB-AB25-3D33A45E2E5E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7329,7 +7329,7 @@
         <v>109</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,13 +7344,13 @@
         <v>65446</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -7359,13 +7359,13 @@
         <v>100992</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -8097,10 +8097,10 @@
         <v>191</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,13 +8115,13 @@
         <v>92396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -8130,13 +8130,13 @@
         <v>161456</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>237</v>
@@ -8145,13 +8145,13 @@
         <v>253852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,7 +8240,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8270,13 @@
         <v>32043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -8285,13 +8285,13 @@
         <v>16811</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -8300,13 +8300,13 @@
         <v>48854</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8321,13 @@
         <v>87571</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H26" s="7">
         <v>83</v>
@@ -8336,13 +8336,13 @@
         <v>79873</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -8351,13 +8351,13 @@
         <v>167445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,13 +8372,13 @@
         <v>91607</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H27" s="7">
         <v>122</v>
@@ -8387,13 +8387,13 @@
         <v>121902</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M27" s="7">
         <v>213</v>
@@ -8402,13 +8402,13 @@
         <v>213509</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8482,7 +8482,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8527,13 +8527,13 @@
         <v>27784</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -8542,7 +8542,7 @@
         <v>15690</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>236</v>
@@ -8665,7 +8665,7 @@
         <v>257</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>258</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8739,7 +8739,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>91718</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H35" s="7">
         <v>43</v>
@@ -8799,13 +8799,13 @@
         <v>46498</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M35" s="7">
         <v>125</v>
@@ -8814,13 +8814,13 @@
         <v>138216</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8835,13 +8835,13 @@
         <v>292789</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H36" s="7">
         <v>316</v>
@@ -8850,13 +8850,13 @@
         <v>330562</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M36" s="7">
         <v>570</v>
@@ -8865,13 +8865,13 @@
         <v>623351</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8886,13 +8886,13 @@
         <v>272050</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -8901,13 +8901,13 @@
         <v>314234</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M37" s="7">
         <v>531</v>
@@ -8916,13 +8916,13 @@
         <v>586284</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9041,13 +9041,13 @@
         <v>64745</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -9056,13 +9056,13 @@
         <v>22238</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M40" s="7">
         <v>84</v>
@@ -9071,13 +9071,13 @@
         <v>86982</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9092,13 +9092,13 @@
         <v>382128</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H41" s="7">
         <v>322</v>
@@ -9107,13 +9107,13 @@
         <v>348936</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M41" s="7">
         <v>686</v>
@@ -9122,10 +9122,10 @@
         <v>731065</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>303</v>
@@ -9331,10 +9331,10 @@
         <v>319</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9349,13 +9349,13 @@
         <v>1706415</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H46" s="7">
         <v>1630</v>
@@ -9364,13 +9364,13 @@
         <v>1708794</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M46" s="7">
         <v>3246</v>
@@ -9379,13 +9379,13 @@
         <v>3415209</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9400,13 +9400,13 @@
         <v>1211401</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H47" s="7">
         <v>1516</v>
@@ -9415,13 +9415,13 @@
         <v>1638355</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M47" s="7">
         <v>2681</v>
@@ -9430,13 +9430,13 @@
         <v>2849755</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9516,7 +9516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BC474B-E2F1-4A59-8261-DC8F2479B812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA072163-01FB-49C2-B8A3-289D928552D0}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9533,7 +9533,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9676,7 +9676,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,13 +9691,13 @@
         <v>58999</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -9706,13 +9706,13 @@
         <v>27772</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -9721,13 +9721,13 @@
         <v>86771</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,13 +9742,13 @@
         <v>158456</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>350</v>
@@ -9757,13 +9757,13 @@
         <v>181777</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>554</v>
@@ -9772,13 +9772,13 @@
         <v>340232</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9793,13 +9793,13 @@
         <v>42843</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>134</v>
@@ -9808,13 +9808,13 @@
         <v>61854</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -9823,13 +9823,13 @@
         <v>104697</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9933,7 +9933,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,13 +9948,13 @@
         <v>145597</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -9963,13 +9963,13 @@
         <v>156359</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
@@ -9978,13 +9978,13 @@
         <v>301956</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,13 +9999,13 @@
         <v>183089</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -10014,13 +10014,13 @@
         <v>126476</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>282</v>
@@ -10029,13 +10029,13 @@
         <v>309565</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,7 +10050,7 @@
         <v>190611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>201</v>
+        <v>387</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>388</v>
@@ -10447,7 +10447,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10480,10 +10480,10 @@
         <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -10492,13 +10492,13 @@
         <v>143520</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10513,13 +10513,13 @@
         <v>129000</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H21" s="7">
         <v>281</v>
@@ -10528,13 +10528,13 @@
         <v>191721</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
@@ -10543,13 +10543,13 @@
         <v>320721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10564,13 +10564,13 @@
         <v>108918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -10579,13 +10579,13 @@
         <v>177636</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -10594,13 +10594,13 @@
         <v>286555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10689,7 +10689,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10719,13 +10719,13 @@
         <v>125191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H25" s="7">
         <v>295</v>
@@ -10734,13 +10734,13 @@
         <v>137813</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>471</v>
@@ -10749,13 +10749,13 @@
         <v>263004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10770,13 +10770,13 @@
         <v>60832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H26" s="7">
         <v>151</v>
@@ -10785,13 +10785,13 @@
         <v>74455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -10800,13 +10800,13 @@
         <v>135287</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10821,13 +10821,13 @@
         <v>10725</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H27" s="7">
         <v>49</v>
@@ -10836,13 +10836,13 @@
         <v>47244</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -10851,13 +10851,13 @@
         <v>57969</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10931,7 +10931,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10946,7 +10946,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10976,10 +10976,10 @@
         <v>37894</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>482</v>
+        <v>156</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>483</v>
@@ -11030,10 +11030,10 @@
         <v>490</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H31" s="7">
         <v>193</v>
@@ -11042,13 +11042,13 @@
         <v>118711</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>248</v>
+        <v>492</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M31" s="7">
         <v>355</v>
@@ -11057,10 +11057,10 @@
         <v>235455</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>413</v>
@@ -11078,13 +11078,13 @@
         <v>122585</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H32" s="7">
         <v>246</v>
@@ -11093,10 +11093,10 @@
         <v>140589</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>408</v>
@@ -11108,13 +11108,13 @@
         <v>263174</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11248,13 +11248,13 @@
         <v>268672</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>170</v>
+        <v>508</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M35" s="7">
         <v>408</v>
@@ -11263,13 +11263,13 @@
         <v>490445</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11284,13 +11284,13 @@
         <v>273291</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H36" s="7">
         <v>437</v>
@@ -11299,13 +11299,13 @@
         <v>308164</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M36" s="7">
         <v>700</v>
@@ -11314,13 +11314,13 @@
         <v>581455</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>280</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11335,13 +11335,13 @@
         <v>132689</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H37" s="7">
         <v>313</v>
@@ -11350,13 +11350,13 @@
         <v>227367</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>525</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M37" s="7">
         <v>451</v>
@@ -11365,13 +11365,13 @@
         <v>360056</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11460,7 +11460,7 @@
         <v>18</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>18</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11490,13 +11490,13 @@
         <v>160829</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H40" s="7">
         <v>55</v>
@@ -11505,13 +11505,13 @@
         <v>49904</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M40" s="7">
         <v>180</v>
@@ -11520,13 +11520,13 @@
         <v>210732</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11541,13 +11541,13 @@
         <v>484675</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H41" s="7">
         <v>606</v>
@@ -11556,13 +11556,13 @@
         <v>508653</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M41" s="7">
         <v>1025</v>
@@ -11571,13 +11571,13 @@
         <v>993328</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11592,13 +11592,13 @@
         <v>213924</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H42" s="7">
         <v>401</v>
@@ -11607,13 +11607,13 @@
         <v>309878</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M42" s="7">
         <v>619</v>
@@ -11622,13 +11622,13 @@
         <v>523802</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11717,7 +11717,7 @@
         <v>18</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11732,7 +11732,7 @@
         <v>18</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11747,13 +11747,13 @@
         <v>890575</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H45" s="7">
         <v>965</v>
@@ -11762,13 +11762,13 @@
         <v>752995</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M45" s="7">
         <v>1818</v>
@@ -11777,13 +11777,13 @@
         <v>1643570</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11798,7 +11798,7 @@
         <v>1568488</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>567</v>
+        <v>285</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>568</v>
@@ -11819,7 +11819,7 @@
         <v>571</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M46" s="7">
         <v>3990</v>

--- a/data/trans_orig/IPAQ_MET-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1643830-F1C3-4AE0-A4E2-3FA08521F36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C791CCF-ADD5-4283-B884-B812D3D58247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A27AB156-362B-4555-B4DF-B82AB960C72C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C5CB0FB-8CDB-4776-A1E2-7170A9864D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="584">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -323,1471 +323,1474 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>20,77%</t>
   </si>
   <si>
-    <t>17,16%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
   </si>
   <si>
     <t>49,13%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>45,21%</t>
   </si>
   <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
+    <t>42,52%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADD9E76-91F5-4FF1-984F-9CB7F79EBAB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34243282-2115-443E-A621-216CC3627CA8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4376,7 +4379,7 @@
         <v>3214</v>
       </c>
       <c r="D44" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>11</v>
@@ -4406,7 +4409,7 @@
         <v>6511</v>
       </c>
       <c r="N44" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>11</v>
@@ -4580,7 +4583,7 @@
         <v>3214</v>
       </c>
       <c r="D48" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>13</v>
@@ -4610,7 +4613,7 @@
         <v>6511</v>
       </c>
       <c r="N48" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>13</v>
@@ -4648,7 +4651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D13E7-52FC-4D1C-B8B6-269AF090CB3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F849FEAA-8EB1-4F0F-9EE5-2E30AE40BE58}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7067,7 +7070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1846F96A-AA8B-47AB-AB25-3D33A45E2E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D67BCAE-DEE3-43F4-A452-0D689242B823}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7365,7 +7368,7 @@
         <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -7374,13 +7377,13 @@
         <v>166438</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,13 +7502,13 @@
         <v>68765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7514,13 +7517,13 @@
         <v>24449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -7529,13 +7532,13 @@
         <v>93214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +7553,13 @@
         <v>280182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
@@ -7565,13 +7568,13 @@
         <v>273755</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>521</v>
@@ -7580,13 +7583,13 @@
         <v>553937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7601,13 +7604,13 @@
         <v>153628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>202</v>
@@ -7616,13 +7619,13 @@
         <v>224880</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>348</v>
@@ -7631,13 +7634,13 @@
         <v>378508</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7729,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7741,7 +7744,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,13 +7759,13 @@
         <v>38610</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -7771,13 +7774,13 @@
         <v>10706</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M15" s="7">
         <v>51</v>
@@ -7786,13 +7789,13 @@
         <v>49316</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7810,13 @@
         <v>183200</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -7822,13 +7825,13 @@
         <v>197172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>391</v>
@@ -7837,13 +7840,13 @@
         <v>380372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,13 +7861,13 @@
         <v>96755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -7873,13 +7876,13 @@
         <v>128431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>225</v>
@@ -7888,13 +7891,13 @@
         <v>225186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,7 +7971,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8013,13 +8016,13 @@
         <v>62342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -8028,13 +8031,13 @@
         <v>30536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>87</v>
@@ -8043,13 +8046,13 @@
         <v>92878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,13 +8067,13 @@
         <v>215226</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H21" s="7">
         <v>182</v>
@@ -8079,13 +8082,13 @@
         <v>195291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" s="7">
         <v>388</v>
@@ -8094,13 +8097,13 @@
         <v>410517</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,13 +8118,13 @@
         <v>92396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -8130,13 +8133,13 @@
         <v>161456</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M22" s="7">
         <v>237</v>
@@ -8145,13 +8148,13 @@
         <v>253852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,7 +8243,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8255,7 +8258,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8273,13 @@
         <v>32043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -8285,13 +8288,13 @@
         <v>16811</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -8300,13 +8303,13 @@
         <v>48854</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8324,13 @@
         <v>87571</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>83</v>
@@ -8336,7 +8339,7 @@
         <v>79873</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>218</v>
@@ -8542,13 +8545,13 @@
         <v>15690</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -8557,13 +8560,13 @@
         <v>43474</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8578,13 +8581,13 @@
         <v>127530</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H31" s="7">
         <v>121</v>
@@ -8593,13 +8596,13 @@
         <v>125957</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M31" s="7">
         <v>244</v>
@@ -8608,13 +8611,13 @@
         <v>253488</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8629,13 +8632,13 @@
         <v>107809</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H32" s="7">
         <v>126</v>
@@ -8644,13 +8647,13 @@
         <v>131467</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M32" s="7">
         <v>235</v>
@@ -8659,13 +8662,13 @@
         <v>239276</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8739,7 +8742,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8784,13 +8787,13 @@
         <v>91718</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H35" s="7">
         <v>43</v>
@@ -8799,13 +8802,13 @@
         <v>46498</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M35" s="7">
         <v>125</v>
@@ -8814,13 +8817,13 @@
         <v>138216</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8835,13 +8838,13 @@
         <v>292789</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H36" s="7">
         <v>316</v>
@@ -8850,13 +8853,13 @@
         <v>330562</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M36" s="7">
         <v>570</v>
@@ -8865,13 +8868,13 @@
         <v>623351</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8886,13 +8889,13 @@
         <v>272050</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -8901,13 +8904,13 @@
         <v>314234</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M37" s="7">
         <v>531</v>
@@ -8916,13 +8919,13 @@
         <v>586284</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9041,13 +9044,13 @@
         <v>64745</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -9056,13 +9059,13 @@
         <v>22238</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M40" s="7">
         <v>84</v>
@@ -9071,13 +9074,13 @@
         <v>86982</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9092,13 +9095,13 @@
         <v>382128</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H41" s="7">
         <v>322</v>
@@ -9107,13 +9110,13 @@
         <v>348936</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M41" s="7">
         <v>686</v>
@@ -9122,13 +9125,13 @@
         <v>731065</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9143,13 +9146,13 @@
         <v>331710</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H42" s="7">
         <v>412</v>
@@ -9158,13 +9161,13 @@
         <v>454993</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M42" s="7">
         <v>735</v>
@@ -9173,13 +9176,13 @@
         <v>786703</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9298,13 +9301,13 @@
         <v>476535</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H45" s="7">
         <v>192</v>
@@ -9313,13 +9316,13 @@
         <v>197393</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M45" s="7">
         <v>642</v>
@@ -9328,13 +9331,13 @@
         <v>673928</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>149</v>
+        <v>321</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9349,13 +9352,13 @@
         <v>1706415</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H46" s="7">
         <v>1630</v>
@@ -9364,13 +9367,13 @@
         <v>1708794</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M46" s="7">
         <v>3246</v>
@@ -9379,13 +9382,13 @@
         <v>3415209</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9400,13 +9403,13 @@
         <v>1211401</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H47" s="7">
         <v>1516</v>
@@ -9415,13 +9418,13 @@
         <v>1638355</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M47" s="7">
         <v>2681</v>
@@ -9430,13 +9433,13 @@
         <v>2849755</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9516,7 +9519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA072163-01FB-49C2-B8A3-289D928552D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206EB7AE-9534-4244-A5AF-2D2DB3995844}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9533,7 +9536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9646,7 +9649,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9676,7 +9679,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,13 +9694,13 @@
         <v>58999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -9706,13 +9709,13 @@
         <v>27772</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -9721,13 +9724,13 @@
         <v>86771</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,13 +9745,13 @@
         <v>158456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>350</v>
@@ -9757,13 +9760,13 @@
         <v>181777</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>554</v>
@@ -9772,13 +9775,13 @@
         <v>340232</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9793,13 +9796,13 @@
         <v>42843</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>134</v>
@@ -9808,13 +9811,13 @@
         <v>61854</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -9823,13 +9826,13 @@
         <v>104697</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9933,7 +9936,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,13 +9951,13 @@
         <v>145597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -9963,13 +9966,13 @@
         <v>156359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
@@ -9978,13 +9981,13 @@
         <v>301956</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,13 +10002,13 @@
         <v>183089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -10014,13 +10017,13 @@
         <v>126476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>282</v>
@@ -10029,13 +10032,13 @@
         <v>309565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,13 +10053,13 @@
         <v>190611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
@@ -10065,13 +10068,13 @@
         <v>271731</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M12" s="7">
         <v>505</v>
@@ -10080,13 +10083,13 @@
         <v>462342</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10190,7 +10193,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,13 +10208,13 @@
         <v>55970</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -10220,13 +10223,13 @@
         <v>36955</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M15" s="7">
         <v>106</v>
@@ -10235,7 +10238,7 @@
         <v>92925</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>404</v>
@@ -10343,7 +10346,7 @@
         <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10417,7 +10420,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10447,7 +10450,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10462,13 +10465,13 @@
         <v>84322</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -10477,13 +10480,13 @@
         <v>59199</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -10492,13 +10495,13 @@
         <v>143520</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10513,13 +10516,13 @@
         <v>129000</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H21" s="7">
         <v>281</v>
@@ -10528,13 +10531,13 @@
         <v>191721</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
@@ -10543,13 +10546,13 @@
         <v>320721</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10564,13 +10567,13 @@
         <v>108918</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -10579,13 +10582,13 @@
         <v>177636</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -10594,13 +10597,13 @@
         <v>286555</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10689,7 +10692,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10719,13 +10722,13 @@
         <v>125191</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H25" s="7">
         <v>295</v>
@@ -10734,13 +10737,13 @@
         <v>137813</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>471</v>
@@ -10749,13 +10752,13 @@
         <v>263004</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10770,13 +10773,13 @@
         <v>60832</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H26" s="7">
         <v>151</v>
@@ -10785,13 +10788,13 @@
         <v>74455</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -10800,13 +10803,13 @@
         <v>135287</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10821,13 +10824,13 @@
         <v>10725</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H27" s="7">
         <v>49</v>
@@ -10836,13 +10839,13 @@
         <v>47244</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>475</v>
+        <v>251</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -10851,13 +10854,13 @@
         <v>57969</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10931,7 +10934,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10946,7 +10949,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -10961,7 +10964,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10976,13 +10979,13 @@
         <v>37894</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>480</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -10991,13 +10994,13 @@
         <v>16322</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -11006,13 +11009,13 @@
         <v>54216</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>488</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11027,13 +11030,13 @@
         <v>116744</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>95</v>
+        <v>488</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H31" s="7">
         <v>193</v>
@@ -11042,13 +11045,13 @@
         <v>118711</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M31" s="7">
         <v>355</v>
@@ -11057,13 +11060,13 @@
         <v>235455</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11093,13 +11096,13 @@
         <v>140589</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M32" s="7">
         <v>418</v>
@@ -11108,13 +11111,13 @@
         <v>263174</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11218,7 +11221,7 @@
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11233,13 +11236,13 @@
         <v>221774</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>507</v>
+        <v>432</v>
       </c>
       <c r="H35" s="7">
         <v>210</v>
@@ -11248,13 +11251,13 @@
         <v>268672</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M35" s="7">
         <v>408</v>
@@ -11263,13 +11266,13 @@
         <v>490445</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11284,13 +11287,13 @@
         <v>273291</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>514</v>
+        <v>277</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H36" s="7">
         <v>437</v>
@@ -11299,13 +11302,13 @@
         <v>308164</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M36" s="7">
         <v>700</v>
@@ -11314,13 +11317,13 @@
         <v>581455</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11335,13 +11338,13 @@
         <v>132689</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H37" s="7">
         <v>313</v>
@@ -11350,13 +11353,13 @@
         <v>227367</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>524</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M37" s="7">
         <v>451</v>
@@ -11365,13 +11368,13 @@
         <v>360056</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11460,22 +11463,22 @@
         <v>18</v>
       </c>
       <c r="L39" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11490,13 +11493,13 @@
         <v>160829</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H40" s="7">
         <v>55</v>
@@ -11505,13 +11508,13 @@
         <v>49904</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>293</v>
+        <v>533</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M40" s="7">
         <v>180</v>
@@ -11520,13 +11523,13 @@
         <v>210732</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11541,13 +11544,13 @@
         <v>484675</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H41" s="7">
         <v>606</v>
@@ -11556,13 +11559,13 @@
         <v>508653</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M41" s="7">
         <v>1025</v>
@@ -11571,13 +11574,13 @@
         <v>993328</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11592,13 +11595,13 @@
         <v>213924</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="H42" s="7">
         <v>401</v>
@@ -11607,13 +11610,13 @@
         <v>309878</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="M42" s="7">
         <v>619</v>
@@ -11622,13 +11625,13 @@
         <v>523802</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11717,22 +11720,22 @@
         <v>18</v>
       </c>
       <c r="L44" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11747,13 +11750,13 @@
         <v>890575</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H45" s="7">
         <v>965</v>
@@ -11762,13 +11765,13 @@
         <v>752995</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M45" s="7">
         <v>1818</v>
@@ -11777,13 +11780,13 @@
         <v>1643570</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11798,7 +11801,7 @@
         <v>1568488</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>285</v>
+        <v>567</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>568</v>
@@ -11819,22 +11822,22 @@
         <v>571</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>333</v>
+        <v>572</v>
       </c>
       <c r="M46" s="7">
         <v>3990</v>
       </c>
       <c r="N46" s="7">
-        <v>3264228</v>
+        <v>3264229</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>410</v>
+        <v>573</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11849,13 +11852,13 @@
         <v>926165</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H47" s="7">
         <v>1972</v>
@@ -11864,13 +11867,13 @@
         <v>1386845</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M47" s="7">
         <v>2935</v>
@@ -11879,13 +11882,13 @@
         <v>2313010</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11927,7 +11930,7 @@
         <v>8743</v>
       </c>
       <c r="N48" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IPAQ_MET-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C791CCF-ADD5-4283-B884-B812D3D58247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87C741B6-C15B-4017-B1DF-419EE5F222E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C5CB0FB-8CDB-4776-A1E2-7170A9864D4E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ABA1BAFD-4444-491B-88A8-B7BE5D7D0498}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="588">
   <si>
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,7 +260,16 @@
     <t>Población según la frecuencia e intensidad del ejercicio físico (IPAQ) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -275,39 +284,51 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -1067,565 +1088,562 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>43,05%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -1634,79 +1652,73 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1715,82 +1727,82 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34243282-2115-443E-A621-216CC3627CA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A642E8-ADEA-442A-9F1B-04EC3231FD1C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4379,7 +4391,7 @@
         <v>3214</v>
       </c>
       <c r="D44" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>11</v>
@@ -4394,7 +4406,7 @@
         <v>3297</v>
       </c>
       <c r="I44" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>11</v>
@@ -4409,7 +4421,7 @@
         <v>6511</v>
       </c>
       <c r="N44" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>11</v>
@@ -4583,7 +4595,7 @@
         <v>3214</v>
       </c>
       <c r="D48" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>13</v>
@@ -4598,7 +4610,7 @@
         <v>3297</v>
       </c>
       <c r="I48" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>13</v>
@@ -4613,7 +4625,7 @@
         <v>6511</v>
       </c>
       <c r="N48" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>13</v>
@@ -4651,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F849FEAA-8EB1-4F0F-9EE5-2E30AE40BE58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC8E4F4-7752-4F27-9ABE-BAEB8E3C951E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4769,43 +4781,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D4" s="7">
+        <v>294738</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I4" s="7">
+        <v>287245</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N4" s="7">
+        <v>581983</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,41 +4834,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,41 +4885,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,41 +4936,47 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,43 +4985,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D8" s="7">
+        <v>294738</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I8" s="7">
+        <v>287245</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N8" s="7">
+        <v>581983</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,7 +5062,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>13</v>
@@ -5074,7 +5116,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5125,7 +5167,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5176,7 +5218,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5262,7 +5304,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
@@ -5277,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>13</v>
@@ -5316,7 +5358,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5331,7 +5373,7 @@
         <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5367,7 +5409,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5382,7 +5424,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5418,7 +5460,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5433,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5510,46 +5552,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5573,7 +5615,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5588,7 +5630,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5603,7 +5645,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,7 +5666,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5639,7 +5681,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5654,7 +5696,7 @@
         <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,7 +5717,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5690,7 +5732,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5705,7 +5747,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,10 +5756,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D23" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -5729,10 +5771,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I23" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -5744,10 +5786,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N23" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -5776,7 +5818,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -5791,7 +5833,7 @@
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -5830,7 +5872,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5845,7 +5887,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5881,7 +5923,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5896,7 +5938,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5932,7 +5974,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5947,7 +5989,7 @@
         <v>18</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6033,7 +6075,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>13</v>
@@ -6087,7 +6129,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6138,7 +6180,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6189,7 +6231,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6320,7 +6362,7 @@
         <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>13</v>
@@ -6374,7 +6416,7 @@
         <v>18</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,7 +6467,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6518,7 @@
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,7 +6589,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>13</v>
@@ -6562,7 +6604,7 @@
         <v>11</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>13</v>
@@ -6601,7 +6643,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6616,7 +6658,7 @@
         <v>18</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6652,7 +6694,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -6667,7 +6709,7 @@
         <v>18</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6703,7 +6745,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6718,7 +6760,7 @@
         <v>18</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7070,7 +7112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D67BCAE-DEE3-43F4-A452-0D689242B823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF49F841-9B83-43CE-B706-7C65EE69F168}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7087,7 +7129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7215,7 +7257,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7230,7 +7272,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7287,13 @@
         <v>90527</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -7260,13 +7302,13 @@
         <v>30465</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>112</v>
@@ -7275,13 +7317,13 @@
         <v>120992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7338,13 @@
         <v>137788</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7">
         <v>149</v>
@@ -7311,13 +7353,13 @@
         <v>157246</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7">
         <v>274</v>
@@ -7326,13 +7368,13 @@
         <v>295034</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7389,13 @@
         <v>65446</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -7362,13 +7404,13 @@
         <v>100992</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -7377,13 +7419,13 @@
         <v>166438</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,7 +7499,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7472,7 +7514,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7502,13 +7544,13 @@
         <v>68765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7517,13 +7559,13 @@
         <v>24449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -7532,13 +7574,13 @@
         <v>93214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7595,13 @@
         <v>280182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
@@ -7568,13 +7610,13 @@
         <v>273755</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>521</v>
@@ -7583,13 +7625,13 @@
         <v>553937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7646,13 @@
         <v>153628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H12" s="7">
         <v>202</v>
@@ -7619,13 +7661,13 @@
         <v>224880</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M12" s="7">
         <v>348</v>
@@ -7634,13 +7676,13 @@
         <v>378508</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,7 +7771,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7744,7 +7786,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7801,13 @@
         <v>38610</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -7774,13 +7816,13 @@
         <v>10706</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M15" s="7">
         <v>51</v>
@@ -7789,13 +7831,13 @@
         <v>49316</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7852,13 @@
         <v>183200</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -7825,13 +7867,13 @@
         <v>197172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>391</v>
@@ -7840,13 +7882,13 @@
         <v>380372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7903,13 @@
         <v>96755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -7876,13 +7918,13 @@
         <v>128431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>225</v>
@@ -7891,13 +7933,13 @@
         <v>225186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +8013,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8001,7 +8043,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8058,13 @@
         <v>62342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -8031,13 +8073,13 @@
         <v>30536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>87</v>
@@ -8046,13 +8088,13 @@
         <v>92878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,13 +8109,13 @@
         <v>215226</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H21" s="7">
         <v>182</v>
@@ -8082,13 +8124,13 @@
         <v>195291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M21" s="7">
         <v>388</v>
@@ -8097,13 +8139,13 @@
         <v>410517</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,13 +8160,13 @@
         <v>92396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -8133,13 +8175,13 @@
         <v>161456</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>237</v>
@@ -8148,13 +8190,13 @@
         <v>253852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,7 +8270,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8243,7 +8285,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8258,7 +8300,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,13 +8315,13 @@
         <v>32043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -8288,13 +8330,13 @@
         <v>16811</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -8303,13 +8345,13 @@
         <v>48854</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,13 +8366,13 @@
         <v>87571</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>83</v>
@@ -8339,13 +8381,13 @@
         <v>79873</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -8354,13 +8396,13 @@
         <v>167445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,13 +8417,13 @@
         <v>91607</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H27" s="7">
         <v>122</v>
@@ -8390,13 +8432,13 @@
         <v>121902</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M27" s="7">
         <v>213</v>
@@ -8405,13 +8447,13 @@
         <v>213509</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,7 +8527,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8500,7 +8542,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8530,13 +8572,13 @@
         <v>27784</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -8545,13 +8587,13 @@
         <v>15690</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -8560,13 +8602,13 @@
         <v>43474</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8623,13 @@
         <v>127530</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H31" s="7">
         <v>121</v>
@@ -8596,13 +8638,13 @@
         <v>125957</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M31" s="7">
         <v>244</v>
@@ -8611,13 +8653,13 @@
         <v>253488</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8674,13 @@
         <v>107809</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H32" s="7">
         <v>126</v>
@@ -8647,13 +8689,13 @@
         <v>131467</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M32" s="7">
         <v>235</v>
@@ -8662,13 +8704,13 @@
         <v>239276</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8742,7 +8784,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8787,13 +8829,13 @@
         <v>91718</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H35" s="7">
         <v>43</v>
@@ -8802,13 +8844,13 @@
         <v>46498</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M35" s="7">
         <v>125</v>
@@ -8817,13 +8859,13 @@
         <v>138216</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8838,13 +8880,13 @@
         <v>292789</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H36" s="7">
         <v>316</v>
@@ -8853,13 +8895,13 @@
         <v>330562</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M36" s="7">
         <v>570</v>
@@ -8868,13 +8910,13 @@
         <v>623351</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8889,13 +8931,13 @@
         <v>272050</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -8904,13 +8946,13 @@
         <v>314234</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M37" s="7">
         <v>531</v>
@@ -8919,13 +8961,13 @@
         <v>586284</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9014,7 +9056,7 @@
         <v>18</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9044,13 +9086,13 @@
         <v>64745</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -9059,13 +9101,13 @@
         <v>22238</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M40" s="7">
         <v>84</v>
@@ -9074,13 +9116,13 @@
         <v>86982</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9095,13 +9137,13 @@
         <v>382128</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H41" s="7">
         <v>322</v>
@@ -9110,13 +9152,13 @@
         <v>348936</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M41" s="7">
         <v>686</v>
@@ -9125,13 +9167,13 @@
         <v>731065</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9146,13 +9188,13 @@
         <v>331710</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H42" s="7">
         <v>412</v>
@@ -9161,13 +9203,13 @@
         <v>454993</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M42" s="7">
         <v>735</v>
@@ -9176,13 +9218,13 @@
         <v>786703</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9301,13 +9343,13 @@
         <v>476535</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H45" s="7">
         <v>192</v>
@@ -9316,13 +9358,13 @@
         <v>197393</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M45" s="7">
         <v>642</v>
@@ -9331,13 +9373,13 @@
         <v>673928</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9352,13 +9394,13 @@
         <v>1706415</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H46" s="7">
         <v>1630</v>
@@ -9367,13 +9409,13 @@
         <v>1708794</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M46" s="7">
         <v>3246</v>
@@ -9382,13 +9424,13 @@
         <v>3415209</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9403,13 +9445,13 @@
         <v>1211401</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H47" s="7">
         <v>1516</v>
@@ -9418,13 +9460,13 @@
         <v>1638355</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M47" s="7">
         <v>2681</v>
@@ -9433,13 +9475,13 @@
         <v>2849755</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9519,7 +9561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206EB7AE-9534-4244-A5AF-2D2DB3995844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BD8964-9112-4E78-8371-4415A899AAB2}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9536,7 +9578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9649,7 +9691,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9679,7 +9721,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,46 +9733,46 @@
         <v>65</v>
       </c>
       <c r="D5" s="7">
-        <v>58999</v>
+        <v>74403</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
       </c>
       <c r="I5" s="7">
-        <v>27772</v>
+        <v>29428</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
       </c>
       <c r="N5" s="7">
-        <v>86771</v>
+        <v>103831</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,46 +9784,46 @@
         <v>204</v>
       </c>
       <c r="D6" s="7">
-        <v>158456</v>
+        <v>188137</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>350</v>
       </c>
       <c r="I6" s="7">
-        <v>181777</v>
+        <v>195966</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M6" s="7">
         <v>554</v>
       </c>
       <c r="N6" s="7">
-        <v>340232</v>
+        <v>384102</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9793,46 +9835,46 @@
         <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>42843</v>
+        <v>48903</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H7" s="7">
         <v>134</v>
       </c>
       <c r="I7" s="7">
-        <v>61854</v>
+        <v>64241</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
       </c>
       <c r="N7" s="7">
-        <v>104697</v>
+        <v>113144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9844,7 +9886,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -9859,7 +9901,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>13</v>
@@ -9874,7 +9916,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>13</v>
@@ -9921,7 +9963,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -9936,7 +9978,7 @@
         <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,46 +9990,46 @@
         <v>110</v>
       </c>
       <c r="D10" s="7">
-        <v>145597</v>
+        <v>146015</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
       </c>
       <c r="I10" s="7">
-        <v>156359</v>
+        <v>146172</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
       </c>
       <c r="N10" s="7">
-        <v>301956</v>
+        <v>292187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,46 +10041,46 @@
         <v>125</v>
       </c>
       <c r="D11" s="7">
-        <v>183089</v>
+        <v>184613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
       </c>
       <c r="I11" s="7">
-        <v>126476</v>
+        <v>118003</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>282</v>
       </c>
       <c r="N11" s="7">
-        <v>309565</v>
+        <v>302616</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,46 +10092,46 @@
         <v>147</v>
       </c>
       <c r="D12" s="7">
-        <v>190611</v>
+        <v>187761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
       </c>
       <c r="I12" s="7">
-        <v>271731</v>
+        <v>250794</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>505</v>
       </c>
       <c r="N12" s="7">
-        <v>462342</v>
+        <v>438555</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10101,7 +10143,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -10116,7 +10158,7 @@
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -10131,7 +10173,7 @@
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -10193,7 +10235,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,46 +10247,46 @@
         <v>57</v>
       </c>
       <c r="D15" s="7">
-        <v>55970</v>
+        <v>55667</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
       </c>
       <c r="I15" s="7">
-        <v>36955</v>
+        <v>34747</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M15" s="7">
         <v>106</v>
       </c>
       <c r="N15" s="7">
-        <v>92925</v>
+        <v>90414</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10256,46 +10298,46 @@
         <v>182</v>
       </c>
       <c r="D16" s="7">
-        <v>162402</v>
+        <v>159335</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>255</v>
       </c>
       <c r="I16" s="7">
-        <v>185783</v>
+        <v>174452</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>437</v>
       </c>
       <c r="N16" s="7">
-        <v>348185</v>
+        <v>333787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10307,46 +10349,46 @@
         <v>121</v>
       </c>
       <c r="D17" s="7">
-        <v>103868</v>
+        <v>101048</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
       </c>
       <c r="I17" s="7">
-        <v>150546</v>
+        <v>139929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
       </c>
       <c r="N17" s="7">
-        <v>254414</v>
+        <v>240977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10358,7 +10400,7 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -10373,7 +10415,7 @@
         <v>536</v>
       </c>
       <c r="I18" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -10388,7 +10430,7 @@
         <v>896</v>
       </c>
       <c r="N18" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -10420,7 +10462,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10450,7 +10492,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10462,46 +10504,46 @@
         <v>85</v>
       </c>
       <c r="D20" s="7">
-        <v>84322</v>
+        <v>80925</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
       </c>
       <c r="I20" s="7">
-        <v>59199</v>
+        <v>54124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
       </c>
       <c r="N20" s="7">
-        <v>143520</v>
+        <v>135049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10513,46 +10555,46 @@
         <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>129000</v>
+        <v>123549</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H21" s="7">
         <v>281</v>
       </c>
       <c r="I21" s="7">
-        <v>191721</v>
+        <v>177659</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
       </c>
       <c r="N21" s="7">
-        <v>320721</v>
+        <v>301208</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10564,46 +10606,46 @@
         <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>108918</v>
+        <v>108083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
       </c>
       <c r="I22" s="7">
-        <v>177636</v>
+        <v>243934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>443</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
       </c>
       <c r="N22" s="7">
-        <v>286555</v>
+        <v>352017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10615,7 +10657,7 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -10630,7 +10672,7 @@
         <v>599</v>
       </c>
       <c r="I23" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -10645,7 +10687,7 @@
         <v>891</v>
       </c>
       <c r="N23" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -10677,7 +10719,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10692,7 +10734,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10707,7 +10749,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10719,46 +10761,46 @@
         <v>176</v>
       </c>
       <c r="D25" s="7">
-        <v>125191</v>
+        <v>114087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H25" s="7">
         <v>295</v>
       </c>
       <c r="I25" s="7">
-        <v>137813</v>
+        <v>124570</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>261</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>471</v>
       </c>
       <c r="N25" s="7">
-        <v>263004</v>
+        <v>238657</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10770,46 +10812,46 @@
         <v>86</v>
       </c>
       <c r="D26" s="7">
-        <v>60832</v>
+        <v>54940</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H26" s="7">
         <v>151</v>
       </c>
       <c r="I26" s="7">
-        <v>74455</v>
+        <v>66324</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
       </c>
       <c r="N26" s="7">
-        <v>135287</v>
+        <v>121264</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10821,46 +10863,46 @@
         <v>17</v>
       </c>
       <c r="D27" s="7">
-        <v>10725</v>
+        <v>9714</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H27" s="7">
         <v>49</v>
       </c>
       <c r="I27" s="7">
-        <v>47244</v>
+        <v>67885</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>251</v>
+        <v>479</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
       </c>
       <c r="N27" s="7">
-        <v>57969</v>
+        <v>77600</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10872,7 +10914,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
@@ -10887,7 +10929,7 @@
         <v>495</v>
       </c>
       <c r="I28" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>13</v>
@@ -10902,7 +10944,7 @@
         <v>774</v>
       </c>
       <c r="N28" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>13</v>
@@ -10934,7 +10976,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10949,7 +10991,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -10964,7 +11006,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10976,46 +11018,46 @@
         <v>37</v>
       </c>
       <c r="D30" s="7">
-        <v>37894</v>
+        <v>37239</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
       </c>
       <c r="I30" s="7">
-        <v>16322</v>
+        <v>15067</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
       </c>
       <c r="N30" s="7">
-        <v>54216</v>
+        <v>52306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>491</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11027,46 +11069,46 @@
         <v>162</v>
       </c>
       <c r="D31" s="7">
-        <v>116744</v>
+        <v>112879</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H31" s="7">
         <v>193</v>
       </c>
       <c r="I31" s="7">
-        <v>118711</v>
+        <v>110654</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M31" s="7">
         <v>355</v>
       </c>
       <c r="N31" s="7">
-        <v>235455</v>
+        <v>223533</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>493</v>
+        <v>401</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>495</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11078,46 +11120,46 @@
         <v>172</v>
       </c>
       <c r="D32" s="7">
-        <v>122585</v>
+        <v>119518</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H32" s="7">
         <v>246</v>
       </c>
       <c r="I32" s="7">
-        <v>140589</v>
+        <v>131336</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>335</v>
+        <v>503</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M32" s="7">
         <v>418</v>
       </c>
       <c r="N32" s="7">
-        <v>263174</v>
+        <v>250854</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11129,7 +11171,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>13</v>
@@ -11144,7 +11186,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>13</v>
@@ -11159,7 +11201,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -11221,7 +11263,7 @@
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11233,46 +11275,46 @@
         <v>198</v>
       </c>
       <c r="D35" s="7">
-        <v>221774</v>
+        <v>220449</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="H35" s="7">
         <v>210</v>
       </c>
       <c r="I35" s="7">
-        <v>268672</v>
+        <v>351290</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="M35" s="7">
         <v>408</v>
       </c>
       <c r="N35" s="7">
-        <v>490445</v>
+        <v>571738</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11284,46 +11326,46 @@
         <v>263</v>
       </c>
       <c r="D36" s="7">
-        <v>273291</v>
+        <v>273892</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>277</v>
+        <v>518</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H36" s="7">
         <v>437</v>
       </c>
       <c r="I36" s="7">
-        <v>308164</v>
+        <v>285431</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="M36" s="7">
         <v>700</v>
       </c>
       <c r="N36" s="7">
-        <v>581455</v>
+        <v>559323</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11335,46 +11377,46 @@
         <v>138</v>
       </c>
       <c r="D37" s="7">
-        <v>132689</v>
+        <v>129938</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>522</v>
+        <v>125</v>
       </c>
       <c r="H37" s="7">
         <v>313</v>
       </c>
       <c r="I37" s="7">
-        <v>227367</v>
+        <v>212544</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M37" s="7">
         <v>451</v>
       </c>
       <c r="N37" s="7">
-        <v>360056</v>
+        <v>342483</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11386,7 +11428,7 @@
         <v>599</v>
       </c>
       <c r="D38" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>13</v>
@@ -11401,7 +11443,7 @@
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>13</v>
@@ -11416,7 +11458,7 @@
         <v>1559</v>
       </c>
       <c r="N38" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>13</v>
@@ -11448,7 +11490,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11463,7 +11505,7 @@
         <v>18</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -11478,7 +11520,7 @@
         <v>18</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11490,46 +11532,46 @@
         <v>125</v>
       </c>
       <c r="D40" s="7">
-        <v>160829</v>
+        <v>134121</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>531</v>
+        <v>221</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>185</v>
+        <v>537</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H40" s="7">
         <v>55</v>
       </c>
       <c r="I40" s="7">
-        <v>49904</v>
+        <v>40515</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>236</v>
+        <v>539</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M40" s="7">
         <v>180</v>
       </c>
       <c r="N40" s="7">
-        <v>210732</v>
+        <v>174635</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11541,46 +11583,46 @@
         <v>419</v>
       </c>
       <c r="D41" s="7">
-        <v>484675</v>
+        <v>612487</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H41" s="7">
         <v>606</v>
       </c>
       <c r="I41" s="7">
-        <v>508653</v>
+        <v>420709</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="M41" s="7">
         <v>1025</v>
       </c>
       <c r="N41" s="7">
-        <v>993328</v>
+        <v>1033197</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>545</v>
+        <v>198</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11592,46 +11634,46 @@
         <v>218</v>
       </c>
       <c r="D42" s="7">
-        <v>213924</v>
+        <v>182113</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H42" s="7">
         <v>401</v>
       </c>
       <c r="I42" s="7">
-        <v>309878</v>
+        <v>256507</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
       <c r="M42" s="7">
         <v>619</v>
       </c>
       <c r="N42" s="7">
-        <v>523802</v>
+        <v>438620</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>554</v>
+        <v>158</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11643,7 +11685,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>13</v>
@@ -11658,7 +11700,7 @@
         <v>1062</v>
       </c>
       <c r="I43" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>13</v>
@@ -11673,7 +11715,7 @@
         <v>1824</v>
       </c>
       <c r="N43" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>13</v>
@@ -11720,7 +11762,7 @@
         <v>18</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11735,7 +11777,7 @@
         <v>18</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11747,46 +11789,46 @@
         <v>853</v>
       </c>
       <c r="D45" s="7">
-        <v>890575</v>
+        <v>862906</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H45" s="7">
         <v>965</v>
       </c>
       <c r="I45" s="7">
-        <v>752995</v>
+        <v>795913</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M45" s="7">
         <v>1818</v>
       </c>
       <c r="N45" s="7">
-        <v>1643570</v>
+        <v>1658818</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11798,46 +11840,46 @@
         <v>1560</v>
       </c>
       <c r="D46" s="7">
-        <v>1568488</v>
+        <v>1709833</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H46" s="7">
         <v>2430</v>
       </c>
       <c r="I46" s="7">
-        <v>1695740</v>
+        <v>1549197</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>572</v>
+        <v>304</v>
       </c>
       <c r="M46" s="7">
         <v>3990</v>
       </c>
       <c r="N46" s="7">
-        <v>3264229</v>
+        <v>3259029</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11849,46 +11891,46 @@
         <v>963</v>
       </c>
       <c r="D47" s="7">
-        <v>926165</v>
+        <v>887079</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H47" s="7">
         <v>1972</v>
       </c>
       <c r="I47" s="7">
-        <v>1386845</v>
+        <v>1367171</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M47" s="7">
         <v>2935</v>
       </c>
       <c r="N47" s="7">
-        <v>2313010</v>
+        <v>2254249</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11900,7 +11942,7 @@
         <v>3376</v>
       </c>
       <c r="D48" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>13</v>
@@ -11915,7 +11957,7 @@
         <v>5367</v>
       </c>
       <c r="I48" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>13</v>
@@ -11930,7 +11972,7 @@
         <v>8743</v>
       </c>
       <c r="N48" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>13</v>
